--- a/841Ops and Supply Chain Analytics/S4/Lecture Examples.xlsx
+++ b/841Ops and Supply Chain Analytics/S4/Lecture Examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoff\Dropbox\3. Queen's\MMA841\Session 4 - SPC and Chi-Square\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/24wq24_queensu_ca/Documents/School/841Ops and Supply Chain Analytics/S4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A20205B-09DE-4560-AC26-927CB662C0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6A20205B-09DE-4560-AC26-927CB662C0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A00FC36E-C331-5F4A-B27B-AF81DFF7B8ED}"/>
   <bookViews>
-    <workbookView xWindow="28035" yWindow="5640" windowWidth="23430" windowHeight="15345" activeTab="1" xr2:uid="{16FC94C1-77A0-4983-9A06-B91A3DD3D896}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17980" activeTab="1" xr2:uid="{16FC94C1-77A0-4983-9A06-B91A3DD3D896}"/>
   </bookViews>
   <sheets>
     <sheet name="Biased Estimator" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Population</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Chi-Squared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df = </t>
   </si>
 </sst>
 </file>
@@ -666,14 +669,14 @@
       <selection activeCell="D40" sqref="D39:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -689,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>10</v>
       </c>
@@ -711,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="7">
         <v>11</v>
       </c>
@@ -733,7 +736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="11">
         <v>12</v>
       </c>
@@ -755,7 +758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -781,7 +784,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -807,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
@@ -826,7 +829,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
@@ -845,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
@@ -864,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
@@ -883,7 +886,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
         <v>13</v>
       </c>
@@ -909,17 +912,17 @@
   <dimension ref="B3:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="17" t="s">
         <v>15</v>
       </c>
@@ -933,7 +936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
@@ -951,7 +954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
@@ -969,7 +972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>21</v>
       </c>
@@ -987,7 +990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="I11" s="16" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
@@ -1025,11 +1028,20 @@
         <v>9.1421318864927876</v>
       </c>
       <c r="L12">
-        <f>_xlfn.CHISQ.DIST.RT(I12,4)</f>
+        <f>_xlfn.CHISQ.DIST.RT(I12,I13)</f>
         <v>5.7643399272299188E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <f>(3-1)*(3-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="17" t="s">
         <v>15</v>
       </c>
@@ -1043,7 +1055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1064,7 +1076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1125,7 @@
         <v>5.7643399272299188E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -1134,16 +1146,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="16"/>
     </row>
-    <row r="23" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C23" s="17" t="s">
         <v>15</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="17" t="s">
         <v>19</v>
       </c>
@@ -1171,7 +1183,7 @@
         <v>2.6666666666666717E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>20</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>0.49282051282051298</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
         <v>21</v>
       </c>
